--- a/Week 7/Week 7 & 8 Plan.xlsx
+++ b/Week 7/Week 7 & 8 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7552D17F-48CC-4A0A-A74F-078006718068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C93EE1-4B35-49AA-90E2-4635DDFC8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Graph Theory</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -654,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -662,12 +665,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -675,25 +678,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -701,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -709,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
@@ -717,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
@@ -725,7 +731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -733,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
@@ -741,63 +747,87 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -5350,11 +5380,11 @@
     <hyperlink ref="A28" r:id="rId23" xr:uid="{1CDE5B58-2017-45AE-88E2-766B2725E005}"/>
     <hyperlink ref="A30" r:id="rId24" xr:uid="{1514D436-3115-4396-AC7A-B0F54B90E1E6}"/>
     <hyperlink ref="A31" r:id="rId25" xr:uid="{B3C1A213-9EC2-455A-A690-172704E65E23}"/>
-    <hyperlink ref="A32" r:id="rId26" xr:uid="{55D8F6F4-3DBA-4829-87EB-672564ABEA9C}"/>
-    <hyperlink ref="A33" r:id="rId27" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{824A0175-A44F-4237-B12F-2C547571B4C8}"/>
-    <hyperlink ref="A34" r:id="rId28" display="https://www.geeksforgeeks.org/find-alphabetical-order-such-that-words-can-be-considered-sorted/" xr:uid="{1AD79937-75BD-466D-B50A-C3202C046F2D}"/>
-    <hyperlink ref="A35" r:id="rId29" xr:uid="{FFFD0FC7-7359-4E07-B465-378B9978CACB}"/>
-    <hyperlink ref="A36" r:id="rId30" xr:uid="{5711B81D-9DE5-42A1-8945-33ED9EDE2287}"/>
+    <hyperlink ref="A33" r:id="rId26" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{824A0175-A44F-4237-B12F-2C547571B4C8}"/>
+    <hyperlink ref="A34" r:id="rId27" display="https://www.geeksforgeeks.org/find-alphabetical-order-such-that-words-can-be-considered-sorted/" xr:uid="{1AD79937-75BD-466D-B50A-C3202C046F2D}"/>
+    <hyperlink ref="A35" r:id="rId28" xr:uid="{FFFD0FC7-7359-4E07-B465-378B9978CACB}"/>
+    <hyperlink ref="A36" r:id="rId29" xr:uid="{5711B81D-9DE5-42A1-8945-33ED9EDE2287}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{55D8F6F4-3DBA-4829-87EB-672564ABEA9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/Week 7/Week 7 & 8 Plan.xlsx
+++ b/Week 7/Week 7 & 8 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C93EE1-4B35-49AA-90E2-4635DDFC8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAE997-8183-4E25-A32A-DA57B5A2BE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Graph Theory</t>
   </si>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>https://ide.geeksforgeeks.org/ysjel3wYuc (BFS implementation-check if you dont know)</t>
+  </si>
+  <si>
+    <t>https://binarysearch.com/problems/Wildfire (Multi Source BFS,same as above but start with multiple sources)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/as-far-from-land-as-possible/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>Multi-Source BFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eeVhb11YsjDPQKMusO97YnvVVoI_xexF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Implement Bellman ford</t>
+  </si>
+  <si>
+    <t>Implement Floyd Warshall</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/snakes-and-ladders/ (Learn this , not an easy one but very frequent question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ide.geeksforgeeks.org/gboTUqJEBk Implement dijkstras -- Refer if u have doubt </t>
   </si>
 </sst>
 </file>
@@ -523,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,11 +828,20 @@
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
@@ -806,29 +851,74 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+    <row r="37" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -5385,8 +5475,18 @@
     <hyperlink ref="A35" r:id="rId28" xr:uid="{FFFD0FC7-7359-4E07-B465-378B9978CACB}"/>
     <hyperlink ref="A36" r:id="rId29" xr:uid="{5711B81D-9DE5-42A1-8945-33ED9EDE2287}"/>
     <hyperlink ref="A32" r:id="rId30" xr:uid="{55D8F6F4-3DBA-4829-87EB-672564ABEA9C}"/>
+    <hyperlink ref="A38" r:id="rId31" xr:uid="{342A6E50-37CC-47CE-867A-83D8C8DEA3EB}"/>
+    <hyperlink ref="A40" r:id="rId32" xr:uid="{6BFAB5B6-C91B-45DC-9B7F-816F713332F9}"/>
+    <hyperlink ref="A41" r:id="rId33" xr:uid="{D9A6A3D3-D7EC-4048-B1B1-894538E07681}"/>
+    <hyperlink ref="A42" r:id="rId34" xr:uid="{FF5B752D-B671-4307-8D4A-AD6861FE7BB6}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{5868F78C-9305-4DC5-9B67-0CA30AC33AC2}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{D018D556-974B-47EE-AD0D-5F80FDCD0656}"/>
+    <hyperlink ref="A43" r:id="rId37" xr:uid="{A77D4139-7D6F-4ED1-9987-1940ACC9E7E4}"/>
+    <hyperlink ref="A44" r:id="rId38" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{38BE8614-AD56-4A53-A2FB-757A3D0440A8}"/>
+    <hyperlink ref="A45" r:id="rId39" display="https://ide.geeksforgeeks.org/gboTUqJEBk" xr:uid="{C58EC79B-90D9-43FD-A409-DC3B41807309}"/>
+    <hyperlink ref="A46" r:id="rId40" xr:uid="{0FBA6E2D-F2A9-4A90-A137-DD5293A349AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Week 7/Week 7 & 8 Plan.xlsx
+++ b/Week 7/Week 7 & 8 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAE997-8183-4E25-A32A-DA57B5A2BE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2391E0D-5EE1-4C7D-9AB9-76525E8DCA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Graph Theory</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://ide.geeksforgeeks.org/gboTUqJEBk Implement dijkstras -- Refer if u have doubt </t>
+  </si>
+  <si>
+    <t>https://binarysearch.com/problems/Farthest-Point-From-Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-there-is-a-valid-path-in-a-grid/</t>
   </si>
 </sst>
 </file>
@@ -559,8 +568,8 @@
   </sheetPr>
   <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -879,36 +888,57 @@
       <c r="A40" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
@@ -918,6 +948,21 @@
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -5485,8 +5530,11 @@
     <hyperlink ref="A44" r:id="rId38" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{38BE8614-AD56-4A53-A2FB-757A3D0440A8}"/>
     <hyperlink ref="A45" r:id="rId39" display="https://ide.geeksforgeeks.org/gboTUqJEBk" xr:uid="{C58EC79B-90D9-43FD-A409-DC3B41807309}"/>
     <hyperlink ref="A46" r:id="rId40" xr:uid="{0FBA6E2D-F2A9-4A90-A137-DD5293A349AD}"/>
+    <hyperlink ref="A49" r:id="rId41" xr:uid="{0C67FECD-7F8F-42BF-9881-9332F1C2C440}"/>
+    <hyperlink ref="A50" r:id="rId42" xr:uid="{D6AA0976-B09F-4B87-8831-947D5E8338E7}"/>
+    <hyperlink ref="A51" r:id="rId43" xr:uid="{BA4245A8-BBA1-4254-A5B6-16B4B9E0C2EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Week 7/Week 7 & 8 Plan.xlsx
+++ b/Week 7/Week 7 & 8 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879136AB-5E37-4703-9749-181639CC7B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF3A63-4A69-4A46-8F68-257AF5FD88E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Graph Theory</t>
   </si>
@@ -184,13 +184,28 @@
     <t>Implement Prims Algorithm using PQ</t>
   </si>
   <si>
-    <t>Try the above problem with another method</t>
-  </si>
-  <si>
     <t>https://binarysearch.com/problems/Group-Points (Try using Union FInd- Analyse code properly-Not an easy q)</t>
   </si>
   <si>
     <t xml:space="preserve">https://binarysearch.com/problems/Connect-Cartesian-Coordinates </t>
+  </si>
+  <si>
+    <t>Maximum Bipartite Matching - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-edge-disjoint-paths-two-vertices/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/hierholzers-algorithm-directed-graph/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/hamiltonian-cycle-backtracking-6/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/stable-marriage-problem/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/ </t>
   </si>
 </sst>
 </file>
@@ -544,17 +559,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M997"/>
+  <dimension ref="A1:M996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="98.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="2"/>
-    <col min="3" max="5" width="14.44140625" style="3"/>
+    <col min="2" max="3" width="14.44140625" style="2"/>
+    <col min="4" max="5" width="14.44140625" style="3"/>
     <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="14.44140625" style="3"/>
   </cols>
@@ -667,6 +682,9 @@
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -680,6 +698,9 @@
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -693,7 +714,7 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -760,7 +781,7 @@
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -771,7 +792,7 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -782,7 +803,7 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -801,7 +822,7 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -868,7 +889,7 @@
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -908,7 +929,10 @@
       <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -932,6 +956,9 @@
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
@@ -945,36 +972,93 @@
       <c r="A48" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>54</v>
-      </c>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="M93" s="6"/>
     </row>
     <row r="94" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D94" s="6"/>
@@ -5490,11 +5574,6 @@
       <c r="D996" s="6"/>
       <c r="H996" s="6"/>
       <c r="M996" s="6"/>
-    </row>
-    <row r="997" spans="4:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D997" s="6"/>
-      <c r="H997" s="6"/>
-      <c r="M997" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5543,8 +5622,14 @@
     <hyperlink ref="A49" r:id="rId43" display="https://binarysearch.com/problems/Group-Points" xr:uid="{95A8E9B7-C578-4FE8-B104-3A9E9CECEC2A}"/>
     <hyperlink ref="A50" r:id="rId44" xr:uid="{BDF56FD4-2222-4A35-9F2B-6379561EE17E}"/>
     <hyperlink ref="A53" r:id="rId45" display="https://binarysearch.com/problems/Connect-Cartesian-Coordinates" xr:uid="{769A6FE5-F7FE-4264-B7C0-90CFFE1D72FD}"/>
+    <hyperlink ref="A54" r:id="rId46" display="https://www.geeksforgeeks.org/maximum-bipartite-matching/" xr:uid="{B41462F7-9908-48ED-A845-659FA71ADD26}"/>
+    <hyperlink ref="A55" r:id="rId47" display="https://www.geeksforgeeks.org/stable-marriage-problem/" xr:uid="{265EE36C-7FCC-49B0-A467-06CF3A1CDDC5}"/>
+    <hyperlink ref="A56" r:id="rId48" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{E4A15831-AC2C-44D3-A651-797B4A963A61}"/>
+    <hyperlink ref="A57" r:id="rId49" xr:uid="{7D40D161-2C2F-4F87-89DB-6F2BAD7A801E}"/>
+    <hyperlink ref="A58" r:id="rId50" xr:uid="{9CE2B100-2D62-4FF1-984A-116DD5DB3556}"/>
+    <hyperlink ref="A59" r:id="rId51" xr:uid="{E3DC000E-DC9F-45A8-AFA0-46420BDA78FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>